--- a/medicine/Enfance/Le_Petit_Français_illustré/Le_Petit_Français_illustré.xlsx
+++ b/medicine/Enfance/Le_Petit_Français_illustré/Le_Petit_Français_illustré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Petit_Fran%C3%A7ais_illustr%C3%A9</t>
+          <t>Le_Petit_Français_illustré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Petit Français illustré, journal des écoliers et des écolières, est un hebdomadaire illustré français fondé en mars 1889 par Armand Colin et destiné à la jeunesse. Il se composait principalement de récits en feuilletons et de chroniques éducatives. Disparu en novembre 1905, il reste, en France, le plus célèbre périodique destiné à la jeunesse de la fin du XIXe siècle[1].
+Le Petit Français illustré, journal des écoliers et des écolières, est un hebdomadaire illustré français fondé en mars 1889 par Armand Colin et destiné à la jeunesse. Il se composait principalement de récits en feuilletons et de chroniques éducatives. Disparu en novembre 1905, il reste, en France, le plus célèbre périodique destiné à la jeunesse de la fin du XIXe siècle.
 Le premier numéro fait 12 pages, vendu 10 centimes, illustré à l'intérieur de gravures en noir et blanc, comme la couverture et le dos. Plus tard, la couverture et le dos passèrent en couleurs. Le prix resta inchangé durant toute l'existence du titre.
-Dès 1889, Christophe y a publié en bande dessinée, sous forme de séquences de dessins avec un texte disposé en récitatif sous les images, ce qui constitua une première[2], La Famille Fenouillard ; puis, jusqu'en 1904, Les Facéties du sapeur Camember, L'Idée fixe du savant Cosinus et Les Malices de Plick et Plock.
+Dès 1889, Christophe y a publié en bande dessinée, sous forme de séquences de dessins avec un texte disposé en récitatif sous les images, ce qui constitua une première, La Famille Fenouillard ; puis, jusqu'en 1904, Les Facéties du sapeur Camember, L'Idée fixe du savant Cosinus et Les Malices de Plick et Plock.
 Pendant un certain temps, une édition belge a été distribuée à Bruxelles par les grands magasins de confection Compagnie anglaise. 
-Le magazine publia des suppléments contenant des concours ; l'un des cadeaux consistait en un rond de serviette conçu par l'artiste Jehan Raymond[3].
-Fut aussi créée une collection, la « Bibliothèque du Petit Français », qui reprit sous forme de volumes illustrés, les histoires publiées en feuilleton. Alfons Mucha y avait sa propre collection, soit 17 récits illustrés par ses soins[4]. 
-Le dernier numéro sort le 25 novembre 1905, sans doute concurrencé par des périodiques imprimés totalement en couleurs comme La Jeunesse illustrée, lancé en deux ans plus tôt[1].
+Le magazine publia des suppléments contenant des concours ; l'un des cadeaux consistait en un rond de serviette conçu par l'artiste Jehan Raymond.
+Fut aussi créée une collection, la « Bibliothèque du Petit Français », qui reprit sous forme de volumes illustrés, les histoires publiées en feuilleton. Alfons Mucha y avait sa propre collection, soit 17 récits illustrés par ses soins. 
+Le dernier numéro sort le 25 novembre 1905, sans doute concurrencé par des périodiques imprimés totalement en couleurs comme La Jeunesse illustrée, lancé en deux ans plus tôt.
 </t>
         </is>
       </c>
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Petit_Fran%C3%A7ais_illustr%C3%A9</t>
+          <t>Le_Petit_Français_illustré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Contributeurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gil Baer
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Petit_Fran%C3%A7ais_illustr%C3%A9</t>
+          <t>Le_Petit_Français_illustré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +589,9 @@
           <t>Exemples de couvertures</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Édition belge du Petit Français illustré du 11 octobre 1902.
